--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14618,6 +14618,324 @@
         <v>373.8361538461539</v>
       </c>
       <c r="I457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>378.12</v>
+      </c>
+      <c r="C458" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="D458" t="n">
+        <v>373.6592307692308</v>
+      </c>
+      <c r="E458" t="n">
+        <v>365.2947058823529</v>
+      </c>
+      <c r="F458" t="n">
+        <v>355.17</v>
+      </c>
+      <c r="G458" t="n">
+        <v>343.5244444444444</v>
+      </c>
+      <c r="H458" t="n">
+        <v>335.7784615384616</v>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="C459" t="n">
+        <v>362.62</v>
+      </c>
+      <c r="D459" t="n">
+        <v>370.8561538461539</v>
+      </c>
+      <c r="E459" t="n">
+        <v>356.6394117647059</v>
+      </c>
+      <c r="F459" t="n">
+        <v>350.4957142857143</v>
+      </c>
+      <c r="G459" t="n">
+        <v>347.1822222222222</v>
+      </c>
+      <c r="H459" t="n">
+        <v>336.0323076923077</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>373.56</v>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>361.82</v>
+      </c>
+      <c r="C461" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="D461" t="n">
+        <v>373.0938461538461</v>
+      </c>
+      <c r="E461" t="n">
+        <v>361.1488235294117</v>
+      </c>
+      <c r="F461" t="n">
+        <v>353.1042857142857</v>
+      </c>
+      <c r="G461" t="n">
+        <v>342.1555555555556</v>
+      </c>
+      <c r="H461" t="n">
+        <v>344.7476923076923</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>366.33</v>
+      </c>
+      <c r="C462" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="D462" t="n">
+        <v>375.2838461538461</v>
+      </c>
+      <c r="E462" t="n">
+        <v>363.7088235294117</v>
+      </c>
+      <c r="F462" t="n">
+        <v>354.5042857142857</v>
+      </c>
+      <c r="G462" t="n">
+        <v>352.1955555555556</v>
+      </c>
+      <c r="H462" t="n">
+        <v>346.1776923076923</v>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>363.58</v>
+      </c>
+      <c r="C463" t="n">
+        <v>365.14</v>
+      </c>
+      <c r="D463" t="n">
+        <v>367.2646153846154</v>
+      </c>
+      <c r="E463" t="n">
+        <v>363.7629411764706</v>
+      </c>
+      <c r="F463" t="n">
+        <v>355.8457142857143</v>
+      </c>
+      <c r="G463" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="H463" t="n">
+        <v>346.5392307692308</v>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>370.94</v>
+      </c>
+      <c r="C464" t="n">
+        <v>382.35</v>
+      </c>
+      <c r="D464" t="n">
+        <v>380.1161538461538</v>
+      </c>
+      <c r="E464" t="n">
+        <v>376.2394117647058</v>
+      </c>
+      <c r="F464" t="n">
+        <v>368.9728571428572</v>
+      </c>
+      <c r="G464" t="n">
+        <v>357.9877777777777</v>
+      </c>
+      <c r="H464" t="n">
+        <v>362.3523076923077</v>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="C465" t="n">
+        <v>387.93</v>
+      </c>
+      <c r="D465" t="n">
+        <v>385.3584615384616</v>
+      </c>
+      <c r="E465" t="n">
+        <v>387.6605882352941</v>
+      </c>
+      <c r="F465" t="n">
+        <v>387.9385714285714</v>
+      </c>
+      <c r="G465" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="H465" t="n">
+        <v>378.9369230769231</v>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>353.31</v>
+      </c>
+      <c r="C466" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="D466" t="n">
+        <v>366.2338461538461</v>
+      </c>
+      <c r="E466" t="n">
+        <v>352.9664705882353</v>
+      </c>
+      <c r="F466" t="n">
+        <v>343.5771428571429</v>
+      </c>
+      <c r="G466" t="n">
+        <v>335.7033333333333</v>
+      </c>
+      <c r="H466" t="n">
+        <v>329.8276923076923</v>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>366.14</v>
+      </c>
+      <c r="C467" t="n">
+        <v>372.31</v>
+      </c>
+      <c r="D467" t="n">
+        <v>375.3415384615385</v>
+      </c>
+      <c r="E467" t="n">
+        <v>372.7705882352941</v>
+      </c>
+      <c r="F467" t="n">
+        <v>364.0371428571429</v>
+      </c>
+      <c r="G467" t="n">
+        <v>353.6966666666667</v>
+      </c>
+      <c r="H467" t="n">
+        <v>350.2030769230769</v>
+      </c>
+      <c r="I467" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14634,7 +14952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19422,6 +19740,106 @@
       </c>
       <c r="B478" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -19590,28 +20008,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0135911308258862</v>
+        <v>-0.04696060040184492</v>
       </c>
       <c r="J2" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L2" t="n">
-        <v>4.656930322821662e-05</v>
+        <v>0.0005740558506314164</v>
       </c>
       <c r="M2" t="n">
-        <v>12.10112786769391</v>
+        <v>12.02354732722794</v>
       </c>
       <c r="N2" t="n">
-        <v>234.2029810745215</v>
+        <v>231.3190460636212</v>
       </c>
       <c r="O2" t="n">
-        <v>15.3036917465859</v>
+        <v>15.20917637689896</v>
       </c>
       <c r="P2" t="n">
-        <v>375.5888014644072</v>
+        <v>375.901392683538</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19667,28 +20085,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05012800765222829</v>
+        <v>0.03583664798412232</v>
       </c>
       <c r="J3" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006529462797549845</v>
+        <v>0.0003445206969803216</v>
       </c>
       <c r="M3" t="n">
-        <v>11.76677889526173</v>
+        <v>11.69922524854331</v>
       </c>
       <c r="N3" t="n">
-        <v>223.6132660472563</v>
+        <v>220.7416319628023</v>
       </c>
       <c r="O3" t="n">
-        <v>14.95370409120283</v>
+        <v>14.85737634856176</v>
       </c>
       <c r="P3" t="n">
-        <v>374.4323583529101</v>
+        <v>374.5676267118322</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19744,28 +20162,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1141993149605642</v>
+        <v>0.1068406047821826</v>
       </c>
       <c r="J4" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004016915200388604</v>
+        <v>0.003647774324601394</v>
       </c>
       <c r="M4" t="n">
-        <v>10.40513592291409</v>
+        <v>10.27715580580449</v>
       </c>
       <c r="N4" t="n">
-        <v>189.4413651915245</v>
+        <v>186.0334812696179</v>
       </c>
       <c r="O4" t="n">
-        <v>13.76377002101984</v>
+        <v>13.63940912465118</v>
       </c>
       <c r="P4" t="n">
-        <v>373.1681735310527</v>
+        <v>373.2371449682441</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19821,28 +20239,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1150077612149635</v>
+        <v>0.1018550625479844</v>
       </c>
       <c r="J5" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003269215390451885</v>
+        <v>0.002643857059005383</v>
       </c>
       <c r="M5" t="n">
-        <v>11.88990216480169</v>
+        <v>11.82791491243065</v>
       </c>
       <c r="N5" t="n">
-        <v>245.1344863304269</v>
+        <v>242.1976034789161</v>
       </c>
       <c r="O5" t="n">
-        <v>15.65677126135612</v>
+        <v>15.56269910648266</v>
       </c>
       <c r="P5" t="n">
-        <v>367.3149572181916</v>
+        <v>367.4344003063226</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19892,28 +20310,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1308471753985916</v>
+        <v>0.1271850425362011</v>
       </c>
       <c r="J6" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00399445704319723</v>
+        <v>0.003878311862553385</v>
       </c>
       <c r="M6" t="n">
-        <v>12.43114096848592</v>
+        <v>12.37120421808223</v>
       </c>
       <c r="N6" t="n">
-        <v>255.1541696219742</v>
+        <v>252.8224162987172</v>
       </c>
       <c r="O6" t="n">
-        <v>15.97354593138212</v>
+        <v>15.90039044485126</v>
       </c>
       <c r="P6" t="n">
-        <v>356.9539534914319</v>
+        <v>356.9873374857913</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19969,28 +20387,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03948979985708861</v>
+        <v>0.04572161667823483</v>
       </c>
       <c r="J7" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003802753014975346</v>
+        <v>0.0005232821470425586</v>
       </c>
       <c r="M7" t="n">
-        <v>12.21327037374552</v>
+        <v>12.13713070234889</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9955230888237</v>
+        <v>239.9034752803368</v>
       </c>
       <c r="O7" t="n">
-        <v>15.55620529206348</v>
+        <v>15.48881774960041</v>
       </c>
       <c r="P7" t="n">
-        <v>349.1887232449231</v>
+        <v>349.1297359254039</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20046,28 +20464,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1603864499444959</v>
+        <v>-0.1484659093215644</v>
       </c>
       <c r="J8" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005669012350020819</v>
+        <v>0.004967597251123168</v>
       </c>
       <c r="M8" t="n">
-        <v>12.98986725045136</v>
+        <v>12.9349052694483</v>
       </c>
       <c r="N8" t="n">
-        <v>266.9386213006235</v>
+        <v>265.6778934843624</v>
       </c>
       <c r="O8" t="n">
-        <v>16.33825637271687</v>
+        <v>16.29962863025911</v>
       </c>
       <c r="P8" t="n">
-        <v>348.7685678952458</v>
+        <v>348.6558556829575</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20104,7 +20522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39775,6 +40193,452 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-41.07742456878486,172.1030497763029</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-41.076756548114055,172.1028945303345</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-41.07607601341908,172.10287901679453</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-41.07539523513217,172.10286614623817</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-41.07471258759543,172.10287408005829</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-41.07402832401123,172.10289998859355</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-41.073348179645755,172.1028797999561</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-41.07740550206631,172.10326279228246</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-41.07673625421275,172.10312125650262</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-41.07607304756859,172.10291215154234</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-41.075386077166165,172.10296845808944</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-41.074707641826336,172.10292933293172</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-41.07403219424281,172.10285675190346</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-41.073348448237255,172.10287679940384</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-41.07741974394782,172.1031036804685</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-41.07740732199213,172.1032424600186</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-41.076742655622034,172.10304973965984</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-41.07607541520358,172.10288570012068</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-41.075390848481554,172.10291515357656</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-41.07471040190736,172.1028984980467</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-41.07402687560932,172.10291616951645</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-41.073357669831154,172.1027737804292</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-41.07741209398985,172.1031891469264</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-41.07674259213721,172.10305044891786</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-41.07607773237087,172.10285981246082</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-41.075393557153646,172.1028848925193</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-41.07471188321795,172.10288194920273</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-41.07403749873791,172.10279749188788</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-41.07335918287998,172.10275687731328</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-41.07740918423809,172.10322165491033</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-41.0767389205903,172.1030914676705</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-41.076069247456964,172.10295460657045</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-41.07539361441409,172.10288425280942</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-41.074713302553114,172.10286609270767</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-41.074038392222555,172.10278751014678</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-41.07335956541478,172.10275260379814</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-41.07741697177122,172.10313465171822</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-41.07675713004936,172.10288802880012</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-41.07608284525674,172.10280269047402</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-41.07540681534117,172.10273677184176</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-41.074727191969856,172.10271092192497</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-41.074043627319725,172.10272902501913</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-41.07337629668059,172.1025656874731</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-41.07742775358669,172.10301419482107</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-41.076763034026705,172.10282206777234</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-41.0760883919163,172.10274072192905</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-41.07541889953156,172.10260176517022</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-41.074747258624974,172.10248673558138</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-41.07406771096938,172.1024599644247</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-41.07339384395752,172.10236965118656</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-41.077398317556565,172.10334305742998</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-41.076732741354355,172.10316050210332</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-41.07606815682446,172.1029667911354</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-41.0753821908847,172.1030118749088</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-41.074700321374216,172.10301111460012</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-41.07402004857382,172.1029924378672</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-41.07334188318744,172.10295014016836</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-41.077411892952746,172.10319139293267</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-41.07674650702698,172.1030067113382</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-41.07607779341311,172.10285913048872</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-41.075403145116574,172.10277777586745</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-41.0747219696705,172.10276926506577</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-41.07403908702382,172.10277974802952</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-41.073363442029844,172.10270929581094</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -19853,7 +19853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19944,35 +19944,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20031,27 +20036,28 @@
       <c r="P2" t="n">
         <v>375.901392683538</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.10751954118953 -41.07702440227401, 172.09685880271033 -41.07797853572263)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1075195411895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.07702440227401</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.0968588027103</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.07797853572263</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.1021891719499</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.07750146899832</v>
       </c>
     </row>
@@ -20108,27 +20114,28 @@
       <c r="P3" t="n">
         <v>374.5676267118322</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.10740775118748 -41.07635249038804, 172.09674708416193 -41.07730662120437)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1074077511875</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.07635249038804</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.0967470841619</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.07730662120437</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1020774176747</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.07682955579621</v>
       </c>
     </row>
@@ -20185,27 +20192,28 @@
       <c r="P4" t="n">
         <v>373.2371449682441</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.10729596118597 -41.07568057163376, 172.09663536561243 -41.076634699817994)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.107295961186</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.07568057163376</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.0966353656124</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.07663469981799</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.1019656633992</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.07615763572588</v>
       </c>
     </row>
@@ -20262,27 +20270,28 @@
       <c r="P5" t="n">
         <v>367.4344003063226</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.1071841711849 -41.07500864601129, 172.09652364706184 -41.07596277156349)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1071841711849</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.07500864601129</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.0965236470618</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.07596277156349</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1018539091234</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.07548570878739</v>
       </c>
     </row>
@@ -20333,27 +20342,28 @@
       <c r="P6" t="n">
         <v>356.9873374857913</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.10707238118448 -41.07433671352059, 172.0964119285101 -41.075290836440885)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1070723811845</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.07433671352059</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.0964119285101</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.07529083644089</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1017421548473</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.07481377498074</v>
       </c>
     </row>
@@ -20410,27 +20420,28 @@
       <c r="P7" t="n">
         <v>349.1297359254039</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.10696059118462 -41.073664774161664, 172.09630020995732 -41.07461889445027)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1069605911846</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.07366477416166</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.0963002099573</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.07461889445027</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.101630400571</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.07414183430596</v>
       </c>
     </row>
@@ -20487,27 +20498,28 @@
       <c r="P8" t="n">
         <v>348.6558556829575</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.1068488011852 -41.072992827934556, 172.0961884914035 -41.07394694559161)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1068488011852</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.07299282793456</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.0961884914035</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.07394694559161</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1015186462944</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.07346988676308</v>
       </c>
     </row>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14938,6 +14938,171 @@
       <c r="I467" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>363.78</v>
+      </c>
+      <c r="C468" t="n">
+        <v>368.39</v>
+      </c>
+      <c r="D468" t="n">
+        <v>372.31</v>
+      </c>
+      <c r="E468" t="n">
+        <v>370.0388235294118</v>
+      </c>
+      <c r="F468" t="n">
+        <v>362.1114285714286</v>
+      </c>
+      <c r="G468" t="n">
+        <v>356.5488888888889</v>
+      </c>
+      <c r="H468" t="n">
+        <v>355.46</v>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>358.96</v>
+      </c>
+      <c r="C469" t="n">
+        <v>358.93</v>
+      </c>
+      <c r="D469" t="n">
+        <v>366.0469230769231</v>
+      </c>
+      <c r="E469" t="n">
+        <v>361.1876470588235</v>
+      </c>
+      <c r="F469" t="n">
+        <v>354.4542857142857</v>
+      </c>
+      <c r="G469" t="n">
+        <v>336.8411111111111</v>
+      </c>
+      <c r="H469" t="n">
+        <v>329.8038461538461</v>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>366.89</v>
+      </c>
+      <c r="C470" t="n">
+        <v>374.97</v>
+      </c>
+      <c r="D470" t="n">
+        <v>371.8146153846154</v>
+      </c>
+      <c r="E470" t="n">
+        <v>369.9270588235294</v>
+      </c>
+      <c r="F470" t="n">
+        <v>363.2128571428572</v>
+      </c>
+      <c r="G470" t="n">
+        <v>355.4344444444445</v>
+      </c>
+      <c r="H470" t="n">
+        <v>360.2592307692308</v>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>372.94</v>
+      </c>
+      <c r="C471" t="n">
+        <v>383.43</v>
+      </c>
+      <c r="D471" t="n">
+        <v>376.1684615384616</v>
+      </c>
+      <c r="E471" t="n">
+        <v>374.2394117647058</v>
+      </c>
+      <c r="F471" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="G471" t="n">
+        <v>359.1888888888889</v>
+      </c>
+      <c r="H471" t="n">
+        <v>364.7769230769231</v>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>372.79</v>
+      </c>
+      <c r="C472" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="D472" t="n">
+        <v>371.0869230769231</v>
+      </c>
+      <c r="E472" t="n">
+        <v>372.6223529411765</v>
+      </c>
+      <c r="F472" t="n">
+        <v>362.8157142857143</v>
+      </c>
+      <c r="G472" t="n">
+        <v>351.8211111111111</v>
+      </c>
+      <c r="H472" t="n">
+        <v>351.2438461538461</v>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14952,7 +15117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19840,6 +20005,56 @@
       </c>
       <c r="B488" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -20013,28 +20228,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04696060040184492</v>
+        <v>-0.06302777069929442</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005740558506314164</v>
+        <v>0.00105164662413193</v>
       </c>
       <c r="M2" t="n">
-        <v>12.02354732722794</v>
+        <v>11.96074856409517</v>
       </c>
       <c r="N2" t="n">
-        <v>231.3190460636212</v>
+        <v>229.4758042616694</v>
       </c>
       <c r="O2" t="n">
-        <v>15.20917637689896</v>
+        <v>15.14845880813191</v>
       </c>
       <c r="P2" t="n">
-        <v>375.901392683538</v>
+        <v>376.0529994809394</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20091,28 +20306,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03583664798412232</v>
+        <v>0.02600848928132989</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003445206969803216</v>
+        <v>0.0001846769602921183</v>
       </c>
       <c r="M3" t="n">
-        <v>11.69922524854331</v>
+        <v>11.64367765355254</v>
       </c>
       <c r="N3" t="n">
-        <v>220.7416319628023</v>
+        <v>219.0434209380761</v>
       </c>
       <c r="O3" t="n">
-        <v>14.85737634856176</v>
+        <v>14.80011557178106</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5676267118322</v>
+        <v>374.6613788611947</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20169,28 +20384,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1068406047821826</v>
+        <v>0.09756101300935394</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003647774324601394</v>
+        <v>0.003104037828801753</v>
       </c>
       <c r="M4" t="n">
-        <v>10.27715580580449</v>
+        <v>10.19912459120622</v>
       </c>
       <c r="N4" t="n">
-        <v>186.0334812696179</v>
+        <v>184.1392609627873</v>
       </c>
       <c r="O4" t="n">
-        <v>13.63940912465118</v>
+        <v>13.56979222253559</v>
       </c>
       <c r="P4" t="n">
-        <v>373.2371449682441</v>
+        <v>373.3249750520051</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20247,28 +20462,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1018550625479844</v>
+        <v>0.1009771599010601</v>
       </c>
       <c r="J5" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002643857059005383</v>
+        <v>0.002652307615094163</v>
       </c>
       <c r="M5" t="n">
-        <v>11.82791491243065</v>
+        <v>11.72209263064351</v>
       </c>
       <c r="N5" t="n">
-        <v>242.1976034789161</v>
+        <v>239.5007940028544</v>
       </c>
       <c r="O5" t="n">
-        <v>15.56269910648266</v>
+        <v>15.47581319358871</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4344003063226</v>
+        <v>367.4424053468804</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20319,28 +20534,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1271850425362011</v>
+        <v>0.1308902754414809</v>
       </c>
       <c r="J6" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003878311862553385</v>
+        <v>0.004192004183352638</v>
       </c>
       <c r="M6" t="n">
-        <v>12.37120421808223</v>
+        <v>12.27244359708332</v>
       </c>
       <c r="N6" t="n">
-        <v>252.8224162987172</v>
+        <v>249.9768517738346</v>
       </c>
       <c r="O6" t="n">
-        <v>15.90039044485126</v>
+        <v>15.8106562727116</v>
       </c>
       <c r="P6" t="n">
-        <v>356.9873374857913</v>
+        <v>356.9526886447608</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20397,28 +20612,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04572161667823483</v>
+        <v>0.04919264471418162</v>
       </c>
       <c r="J7" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005232821470425586</v>
+        <v>0.0006168315288861415</v>
       </c>
       <c r="M7" t="n">
-        <v>12.13713070234889</v>
+        <v>12.07482640294531</v>
       </c>
       <c r="N7" t="n">
-        <v>239.9034752803368</v>
+        <v>237.7394086653906</v>
       </c>
       <c r="O7" t="n">
-        <v>15.48881774960041</v>
+        <v>15.41880049372812</v>
       </c>
       <c r="P7" t="n">
-        <v>349.1297359254039</v>
+        <v>349.0968392750503</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20475,28 +20690,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1484659093215644</v>
+        <v>-0.1332832965809237</v>
       </c>
       <c r="J8" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004967597251123168</v>
+        <v>0.004054788641798424</v>
       </c>
       <c r="M8" t="n">
-        <v>12.9349052694483</v>
+        <v>12.94549142885189</v>
       </c>
       <c r="N8" t="n">
-        <v>265.6778934843624</v>
+        <v>264.8890282279083</v>
       </c>
       <c r="O8" t="n">
-        <v>16.29962863025911</v>
+        <v>16.27541176830584</v>
       </c>
       <c r="P8" t="n">
-        <v>348.6558556829575</v>
+        <v>348.5118976545236</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20534,7 +20749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40651,6 +40866,241 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-41.07740939585671,172.1032192906934</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-41.076742359359464,172.10305304953053</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-41.07607458584021,172.1028949658475</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-41.07540025473437,172.1028100673169</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-41.074719932134364,172.1027920281759</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-41.074042104877066,172.102746033383</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-41.07336900420735,172.10264715706975</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-41.07740429583444,172.10327626831722</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-41.076732349860286,172.10316487585976</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-41.07606795904544,172.10296900072439</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-41.07539088955981,172.1029146946543</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-41.07471183031404,172.10288254023286</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-41.07402125244943,172.1029789887911</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-41.07334185795593,172.1029504220384</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-41.07741268651999,172.10318252711846</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-41.07674932150501,172.1029752675617</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-41.0760740616887,172.10290082171394</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-41.07540013647996,172.10281138845713</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-41.07472109752094,172.10277900862272</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-41.07404092571704,172.10275920665583</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-41.073374082086296,172.10259042840931</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-41.07741908793732,172.1031110095431</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-41.07675827275761,172.10287526215046</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-41.07607866835178,172.10284935555524</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-41.075404699222275,172.1027604133019</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-41.07472573940274,172.10272714993116</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-41.07404489817533,172.10271482730323</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-41.073378862054774,172.1025370276288</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-41.07741892922503,172.1031127827063</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-41.07674274026847,172.10304879398248</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-41.07607329173887,172.10290942365432</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-41.07540298827435,172.1027795281167</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-41.074720677316876,172.102783703092</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-41.07403710254775,172.10280191800194</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-41.07336454323622,172.1026969935412</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15101,6 +15101,97 @@
         <v>351.2438461538461</v>
       </c>
       <c r="I472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>371.97</v>
+      </c>
+      <c r="C473" t="n">
+        <v>369.88</v>
+      </c>
+      <c r="D473" t="n">
+        <v>368.2238461538461</v>
+      </c>
+      <c r="E473" t="n">
+        <v>367.0676470588235</v>
+      </c>
+      <c r="F473" t="n">
+        <v>362.5128571428572</v>
+      </c>
+      <c r="G473" t="n">
+        <v>353.8</v>
+      </c>
+      <c r="H473" t="n">
+        <v>355.7176923076923</v>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="C474" t="n">
+        <v>366.49</v>
+      </c>
+      <c r="D474" t="n">
+        <v>362.8446153846153</v>
+      </c>
+      <c r="E474" t="n">
+        <v>366.3235294117647</v>
+      </c>
+      <c r="F474" t="n">
+        <v>361.8171428571429</v>
+      </c>
+      <c r="G474" t="n">
+        <v>362.8111111111111</v>
+      </c>
+      <c r="H474" t="n">
+        <v>364.2192307692308</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="G475" t="n">
+        <v>355.2422222222222</v>
+      </c>
+      <c r="H475" t="n">
+        <v>355.7007692307693</v>
+      </c>
+      <c r="I475" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15117,7 +15208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20055,6 +20146,36 @@
       </c>
       <c r="B493" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -20228,28 +20349,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06302777069929442</v>
+        <v>-0.06542495484222209</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K2" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00105164662413193</v>
+        <v>0.001142766021523522</v>
       </c>
       <c r="M2" t="n">
-        <v>11.96074856409517</v>
+        <v>11.91388834467614</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4758042616694</v>
+        <v>228.3663675009402</v>
       </c>
       <c r="O2" t="n">
-        <v>15.14845880813191</v>
+        <v>15.11179564118507</v>
       </c>
       <c r="P2" t="n">
-        <v>376.0529994809394</v>
+        <v>376.0758027359076</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20306,28 +20427,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02600848928132989</v>
+        <v>0.01989615212048466</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K3" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001846769602921183</v>
+        <v>0.0001089083224966592</v>
       </c>
       <c r="M3" t="n">
-        <v>11.64367765355254</v>
+        <v>11.61747191878245</v>
       </c>
       <c r="N3" t="n">
-        <v>219.0434209380761</v>
+        <v>218.2122531728849</v>
       </c>
       <c r="O3" t="n">
-        <v>14.80011557178106</v>
+        <v>14.7720091109126</v>
       </c>
       <c r="P3" t="n">
-        <v>374.6613788611947</v>
+        <v>374.7201459712253</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20384,28 +20505,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09756101300935394</v>
+        <v>0.08905381196040099</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K4" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003104037828801753</v>
+        <v>0.00260229642633969</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19912459120622</v>
+        <v>10.19100881480398</v>
       </c>
       <c r="N4" t="n">
-        <v>184.1392609627873</v>
+        <v>183.790321080112</v>
       </c>
       <c r="O4" t="n">
-        <v>13.56979222253559</v>
+        <v>13.55692889559107</v>
       </c>
       <c r="P4" t="n">
-        <v>373.3249750520051</v>
+        <v>373.4060863173357</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20462,28 +20583,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1009771599010601</v>
+        <v>0.09827431303741621</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002652307615094163</v>
+        <v>0.002533477499115699</v>
       </c>
       <c r="M5" t="n">
-        <v>11.72209263064351</v>
+        <v>11.68057909556704</v>
       </c>
       <c r="N5" t="n">
-        <v>239.5007940028544</v>
+        <v>238.3950771712717</v>
       </c>
       <c r="O5" t="n">
-        <v>15.47581319358871</v>
+        <v>15.44004783578314</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4424053468804</v>
+        <v>367.4674377267073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20534,28 +20655,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1308902754414809</v>
+        <v>0.1290665198696907</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004192004183352638</v>
+        <v>0.004126096595983064</v>
       </c>
       <c r="M6" t="n">
-        <v>12.27244359708332</v>
+        <v>12.21021105079511</v>
       </c>
       <c r="N6" t="n">
-        <v>249.9768517738346</v>
+        <v>248.3256551490494</v>
       </c>
       <c r="O6" t="n">
-        <v>15.8106562727116</v>
+        <v>15.75835191728657</v>
       </c>
       <c r="P6" t="n">
-        <v>356.9526886447608</v>
+        <v>356.9699302117053</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20612,28 +20733,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04919264471418162</v>
+        <v>0.05777091280284941</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006168315288861415</v>
+        <v>0.000859810981526099</v>
       </c>
       <c r="M7" t="n">
-        <v>12.07482640294531</v>
+        <v>12.03771678817163</v>
       </c>
       <c r="N7" t="n">
-        <v>237.7394086653906</v>
+        <v>236.4450227348186</v>
       </c>
       <c r="O7" t="n">
-        <v>15.41880049372812</v>
+        <v>15.37676893026681</v>
       </c>
       <c r="P7" t="n">
-        <v>349.0968392750503</v>
+        <v>349.0149300571139</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20690,28 +20811,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1332832965809237</v>
+        <v>-0.1169555788915377</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004054788641798424</v>
+        <v>0.003147551769879908</v>
       </c>
       <c r="M8" t="n">
-        <v>12.94549142885189</v>
+        <v>12.95328938292201</v>
       </c>
       <c r="N8" t="n">
-        <v>264.8890282279083</v>
+        <v>264.372693053758</v>
       </c>
       <c r="O8" t="n">
-        <v>16.27541176830584</v>
+        <v>16.25954160035756</v>
       </c>
       <c r="P8" t="n">
-        <v>348.5118976545236</v>
+        <v>348.3559063023759</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20749,7 +20870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41101,6 +41222,131 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-41.07741806159738,172.10312247599822</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-41.07674393589854,172.1030354362897</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-41.07607026239515,172.10294326765035</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-41.07539711102886,172.10284518878484</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-41.07472035687336,172.10278728304698</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-41.07403919635799,172.10277852657958</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-41.073369276862245,172.10264411105277</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-41.077417246873104,172.10313157823555</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-41.07674034900367,172.10307550936668</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-41.07606457075057,172.10300685470972</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-41.07539632370043,172.1028539847964</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-41.07471962075975,172.10279550681133</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-41.074048730717244,172.10267201087663</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-41.0733782719868,172.1025436197569</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-41.07470944510034,172.10290918724863</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-41.07404072233237,172.1027614788155</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-41.07336925895654,172.1026443110897</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15194,6 +15194,97 @@
       <c r="I475" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="n">
+        <v>348.2042857142857</v>
+      </c>
+      <c r="G476" t="n">
+        <v>324.7233333333333</v>
+      </c>
+      <c r="H476" t="n">
+        <v>327.7215384615384</v>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>374.51</v>
+      </c>
+      <c r="C477" t="n">
+        <v>363.49</v>
+      </c>
+      <c r="D477" t="n">
+        <v>358.8215384615385</v>
+      </c>
+      <c r="E477" t="n">
+        <v>355.9270588235294</v>
+      </c>
+      <c r="F477" t="n">
+        <v>330.0742857142857</v>
+      </c>
+      <c r="G477" t="n">
+        <v>329.2577777777778</v>
+      </c>
+      <c r="H477" t="n">
+        <v>317.3830769230769</v>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>411.28</v>
+      </c>
+      <c r="C478" t="n">
+        <v>390.96</v>
+      </c>
+      <c r="D478" t="n">
+        <v>383.2792307692308</v>
+      </c>
+      <c r="E478" t="n">
+        <v>372.3958823529412</v>
+      </c>
+      <c r="F478" t="n">
+        <v>359.2985714285714</v>
+      </c>
+      <c r="G478" t="n">
+        <v>349.2455555555555</v>
+      </c>
+      <c r="H478" t="n">
+        <v>339.8384615384616</v>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15208,7 +15299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20176,6 +20267,36 @@
       </c>
       <c r="B496" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -20349,28 +20470,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06542495484222209</v>
+        <v>-0.04989301544652699</v>
       </c>
       <c r="J2" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K2" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001142766021523522</v>
+        <v>0.000660916872544326</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91388834467614</v>
+        <v>11.95407142884343</v>
       </c>
       <c r="N2" t="n">
-        <v>228.3663675009402</v>
+        <v>230.5985281637826</v>
       </c>
       <c r="O2" t="n">
-        <v>15.11179564118507</v>
+        <v>15.18547095627207</v>
       </c>
       <c r="P2" t="n">
-        <v>376.0758027359076</v>
+        <v>375.9270924003196</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20427,28 +20548,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01989615212048466</v>
+        <v>0.02160540985541533</v>
       </c>
       <c r="J3" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K3" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001089083224966592</v>
+        <v>0.0001289918861897554</v>
       </c>
       <c r="M3" t="n">
-        <v>11.61747191878245</v>
+        <v>11.62904242730725</v>
       </c>
       <c r="N3" t="n">
-        <v>218.2122531728849</v>
+        <v>218.0842794348738</v>
       </c>
       <c r="O3" t="n">
-        <v>14.7720091109126</v>
+        <v>14.76767684623664</v>
       </c>
       <c r="P3" t="n">
-        <v>374.7201459712253</v>
+        <v>374.703540145417</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20505,28 +20626,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08905381196040099</v>
+        <v>0.08523857908443583</v>
       </c>
       <c r="J4" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00260229642633969</v>
+        <v>0.002394467791483335</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19100881480398</v>
+        <v>10.19716172900233</v>
       </c>
       <c r="N4" t="n">
-        <v>183.790321080112</v>
+        <v>183.7283219104621</v>
       </c>
       <c r="O4" t="n">
-        <v>13.55692889559107</v>
+        <v>13.55464207976227</v>
       </c>
       <c r="P4" t="n">
-        <v>373.4060863173357</v>
+        <v>373.4425904361098</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20583,28 +20704,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09827431303741621</v>
+        <v>0.09357878327846493</v>
       </c>
       <c r="J5" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K5" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002533477499115699</v>
+        <v>0.002312607318898929</v>
       </c>
       <c r="M5" t="n">
-        <v>11.68057909556704</v>
+        <v>11.66242924457962</v>
       </c>
       <c r="N5" t="n">
-        <v>238.3950771712717</v>
+        <v>237.7352046585202</v>
       </c>
       <c r="O5" t="n">
-        <v>15.44004783578314</v>
+        <v>15.41866416582579</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4674377267073</v>
+        <v>367.5111343518055</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20655,28 +20776,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1290665198696907</v>
+        <v>0.1116000972809602</v>
       </c>
       <c r="J6" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004126096595983064</v>
+        <v>0.003095662502641039</v>
       </c>
       <c r="M6" t="n">
-        <v>12.21021105079511</v>
+        <v>12.21338320459376</v>
       </c>
       <c r="N6" t="n">
-        <v>248.3256551490494</v>
+        <v>249.0605192320493</v>
       </c>
       <c r="O6" t="n">
-        <v>15.75835191728657</v>
+        <v>15.78165134680301</v>
       </c>
       <c r="P6" t="n">
-        <v>356.9699302117053</v>
+        <v>357.1349966958678</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20733,28 +20854,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05777091280284941</v>
+        <v>0.03811377207943648</v>
       </c>
       <c r="J7" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000859810981526099</v>
+        <v>0.0003748865615773589</v>
       </c>
       <c r="M7" t="n">
-        <v>12.03771678817163</v>
+        <v>12.06346434266665</v>
       </c>
       <c r="N7" t="n">
-        <v>236.4450227348186</v>
+        <v>237.405877117722</v>
       </c>
       <c r="O7" t="n">
-        <v>15.37676893026681</v>
+        <v>15.40798095526218</v>
       </c>
       <c r="P7" t="n">
-        <v>349.0149300571139</v>
+        <v>349.2032438603607</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20811,28 +20932,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1169555788915377</v>
+        <v>-0.1373286582144899</v>
       </c>
       <c r="J8" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003147551769879908</v>
+        <v>0.004344356600377908</v>
       </c>
       <c r="M8" t="n">
-        <v>12.95328938292201</v>
+        <v>12.97543275291606</v>
       </c>
       <c r="N8" t="n">
-        <v>264.372693053758</v>
+        <v>265.1231013939342</v>
       </c>
       <c r="O8" t="n">
-        <v>16.25954160035756</v>
+        <v>16.28260118635638</v>
       </c>
       <c r="P8" t="n">
-        <v>348.3559063023759</v>
+        <v>348.5513130707339</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20870,7 +20991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21331,7 +21452,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-41.07540425794864,172.1027653432415</t>
+          <t>-41.07540425794865,172.1027653432415</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -32012,7 +32133,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-41.076762716609515,172.10282561406444</t>
+          <t>-41.07676271660952,172.10282561406444</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -41347,6 +41468,131 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-41.07470521730147,172.10295641899518</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-41.0740084306229,172.10312222668125</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-41.073339654673624,172.1029750356541</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-41.077420749124286,172.10309245043462</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-41.076737174748736,172.1031109722632</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-41.07606031399925,172.1030544108763</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-41.075385323437956,172.10297687861643</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-41.074686034005666,172.1031707264298</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-41.07401322854167,172.1030686273999</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-41.07332871550642,172.10309723991466</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-41.077459653900235,172.1026577887695</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-41.076766239933995,172.10278625022033</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-41.07608619197595,172.10276530021005</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-41.07540274865426,172.10278220516417</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-41.07471695593291,172.10282527785003</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-41.07403437741305,172.10283236231038</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-41.073352475472504,172.10283180930244</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15283,6 +15283,39 @@
         <v>339.8384615384616</v>
       </c>
       <c r="I478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="C479" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="D479" t="n">
+        <v>399.4823076923077</v>
+      </c>
+      <c r="E479" t="n">
+        <v>384.0494117647058</v>
+      </c>
+      <c r="F479" t="n">
+        <v>363.2428571428571</v>
+      </c>
+      <c r="G479" t="n">
+        <v>371.7755555555556</v>
+      </c>
+      <c r="H479" t="n">
+        <v>372.1846153846154</v>
+      </c>
+      <c r="I479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15299,7 +15332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20297,6 +20330,16 @@
       </c>
       <c r="B499" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -20470,28 +20513,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04989301544652699</v>
+        <v>-0.04243494769024286</v>
       </c>
       <c r="J2" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000660916872544326</v>
+        <v>0.0004786133955023697</v>
       </c>
       <c r="M2" t="n">
-        <v>11.95407142884343</v>
+        <v>11.97285081912357</v>
       </c>
       <c r="N2" t="n">
-        <v>230.5985281637826</v>
+        <v>230.8132072367427</v>
       </c>
       <c r="O2" t="n">
-        <v>15.18547095627207</v>
+        <v>15.19253788004962</v>
       </c>
       <c r="P2" t="n">
-        <v>375.9270924003196</v>
+        <v>375.8556026324328</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20548,28 +20591,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02160540985541533</v>
+        <v>0.03327871388023732</v>
       </c>
       <c r="J3" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001289918861897554</v>
+        <v>0.0003047033914497232</v>
       </c>
       <c r="M3" t="n">
-        <v>11.62904242730725</v>
+        <v>11.6755669354911</v>
       </c>
       <c r="N3" t="n">
-        <v>218.0842794348738</v>
+        <v>219.4139234756773</v>
       </c>
       <c r="O3" t="n">
-        <v>14.76767684623664</v>
+        <v>14.8126271631901</v>
       </c>
       <c r="P3" t="n">
-        <v>374.703540145417</v>
+        <v>374.5904829487812</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20626,28 +20669,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08523857908443583</v>
+        <v>0.0950027347718457</v>
       </c>
       <c r="J4" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002394467791483335</v>
+        <v>0.002963615995342894</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19716172900233</v>
+        <v>10.23907817060248</v>
       </c>
       <c r="N4" t="n">
-        <v>183.7283219104621</v>
+        <v>184.6412231825964</v>
       </c>
       <c r="O4" t="n">
-        <v>13.55464207976227</v>
+        <v>13.58827520999617</v>
       </c>
       <c r="P4" t="n">
-        <v>373.4425904361098</v>
+        <v>373.3488158631083</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20704,28 +20747,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09357878327846493</v>
+        <v>0.09924105374940971</v>
       </c>
       <c r="J5" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002312607318898929</v>
+        <v>0.002605980660365659</v>
       </c>
       <c r="M5" t="n">
-        <v>11.66242924457962</v>
+        <v>11.66998530300942</v>
       </c>
       <c r="N5" t="n">
-        <v>237.7352046585202</v>
+        <v>237.6397978423249</v>
       </c>
       <c r="O5" t="n">
-        <v>15.41866416582579</v>
+        <v>15.41556998110433</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5111343518055</v>
+        <v>367.4582839086372</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20776,28 +20819,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1116000972809602</v>
+        <v>0.1128973084094388</v>
       </c>
       <c r="J6" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K6" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003095662502641039</v>
+        <v>0.003180756863375378</v>
       </c>
       <c r="M6" t="n">
-        <v>12.21338320459376</v>
+        <v>12.19248485333498</v>
       </c>
       <c r="N6" t="n">
-        <v>249.0605192320493</v>
+        <v>248.4838577163758</v>
       </c>
       <c r="O6" t="n">
-        <v>15.78165134680301</v>
+        <v>15.76337075997313</v>
       </c>
       <c r="P6" t="n">
-        <v>357.1349966958678</v>
+        <v>357.1227003918358</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20854,28 +20897,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03811377207943648</v>
+        <v>0.04689010469584679</v>
       </c>
       <c r="J7" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K7" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003748865615773589</v>
+        <v>0.0005669757140790432</v>
       </c>
       <c r="M7" t="n">
-        <v>12.06346434266665</v>
+        <v>12.08785236112258</v>
       </c>
       <c r="N7" t="n">
-        <v>237.405877117722</v>
+        <v>237.9559452957301</v>
       </c>
       <c r="O7" t="n">
-        <v>15.40798095526218</v>
+        <v>15.42582073329423</v>
       </c>
       <c r="P7" t="n">
-        <v>349.2032438603607</v>
+        <v>349.1188854456405</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20932,28 +20975,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1373286582144899</v>
+        <v>-0.1265036634606843</v>
       </c>
       <c r="J8" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K8" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004344356600377908</v>
+        <v>0.003679515005444944</v>
       </c>
       <c r="M8" t="n">
-        <v>12.97543275291606</v>
+        <v>13.01256104685355</v>
       </c>
       <c r="N8" t="n">
-        <v>265.1231013939342</v>
+        <v>266.2477934432474</v>
       </c>
       <c r="O8" t="n">
-        <v>16.28260118635638</v>
+        <v>16.31710125736944</v>
       </c>
       <c r="P8" t="n">
-        <v>348.5513130707339</v>
+        <v>348.447175335352</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20991,7 +21034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41593,6 +41636,53 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-41.077439783785096,172.10287978899504</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-41.07677875662023,172.1026464080634</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-41.076103335582054,172.10257376598076</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-41.07541507873883,172.1026444519262</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-41.07472112926296,172.10277865400454</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-41.074058215602,172.1025660467675</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-41.07338669974945,172.10244946597226</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I479"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15316,6 +15316,105 @@
         <v>372.1846153846154</v>
       </c>
       <c r="I479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>387.02</v>
+      </c>
+      <c r="C480" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="D480" t="n">
+        <v>374.6407692307693</v>
+      </c>
+      <c r="E480" t="n">
+        <v>361.3164705882353</v>
+      </c>
+      <c r="F480" t="n">
+        <v>354.4385714285714</v>
+      </c>
+      <c r="G480" t="n">
+        <v>340.7966666666667</v>
+      </c>
+      <c r="H480" t="n">
+        <v>328.4015384615385</v>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>401.54</v>
+      </c>
+      <c r="C481" t="n">
+        <v>391.62</v>
+      </c>
+      <c r="D481" t="n">
+        <v>381.7546153846154</v>
+      </c>
+      <c r="E481" t="n">
+        <v>373.7558823529412</v>
+      </c>
+      <c r="F481" t="n">
+        <v>365.3642857142858</v>
+      </c>
+      <c r="G481" t="n">
+        <v>353.3433333333333</v>
+      </c>
+      <c r="H481" t="n">
+        <v>341.0592307692308</v>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>399.29</v>
+      </c>
+      <c r="C482" t="n">
+        <v>391.47</v>
+      </c>
+      <c r="D482" t="n">
+        <v>384.0946153846153</v>
+      </c>
+      <c r="E482" t="n">
+        <v>382.6223529411765</v>
+      </c>
+      <c r="F482" t="n">
+        <v>370.0485714285714</v>
+      </c>
+      <c r="G482" t="n">
+        <v>362.77</v>
+      </c>
+      <c r="H482" t="n">
+        <v>360.3992307692308</v>
+      </c>
+      <c r="I482" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15332,7 +15431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20340,6 +20439,36 @@
       </c>
       <c r="B500" t="n">
         <v>-0.04</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -20513,28 +20642,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04243494769024286</v>
+        <v>-0.01627760213825929</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004786133955023697</v>
+        <v>7.027140578508284e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>11.97285081912357</v>
+        <v>12.05213943319833</v>
       </c>
       <c r="N2" t="n">
-        <v>230.8132072367427</v>
+        <v>232.6653764743599</v>
       </c>
       <c r="O2" t="n">
-        <v>15.19253788004962</v>
+        <v>15.25337262622139</v>
       </c>
       <c r="P2" t="n">
-        <v>375.8556026324328</v>
+        <v>375.6040105495319</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20591,28 +20720,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03327871388023732</v>
+        <v>0.05135716735484191</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003047033914497232</v>
+        <v>0.000729698873460527</v>
       </c>
       <c r="M3" t="n">
-        <v>11.6755669354911</v>
+        <v>11.70637526653451</v>
       </c>
       <c r="N3" t="n">
-        <v>219.4139234756773</v>
+        <v>219.3403544913301</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8126271631901</v>
+        <v>14.81014363506749</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5904829487812</v>
+        <v>374.4148259101766</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20669,28 +20798,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0950027347718457</v>
+        <v>0.1002852526409685</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002963615995342894</v>
+        <v>0.003338851179111479</v>
       </c>
       <c r="M4" t="n">
-        <v>10.23907817060248</v>
+        <v>10.20743590394498</v>
       </c>
       <c r="N4" t="n">
-        <v>184.6412231825964</v>
+        <v>183.5704223474343</v>
       </c>
       <c r="O4" t="n">
-        <v>13.58827520999617</v>
+        <v>13.54881627107824</v>
       </c>
       <c r="P4" t="n">
-        <v>373.3488158631083</v>
+        <v>373.2978648339996</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20747,28 +20876,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09924105374940971</v>
+        <v>0.1022723457541973</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K5" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002605980660365659</v>
+        <v>0.002795181572100347</v>
       </c>
       <c r="M5" t="n">
-        <v>11.66998530300942</v>
+        <v>11.64700412346018</v>
       </c>
       <c r="N5" t="n">
-        <v>237.6397978423249</v>
+        <v>236.5299367762135</v>
       </c>
       <c r="O5" t="n">
-        <v>15.41556998110433</v>
+        <v>15.37952979698058</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4582839086372</v>
+        <v>367.4297518490433</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20819,28 +20948,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1128973084094388</v>
+        <v>0.1167665510837206</v>
       </c>
       <c r="J6" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003180756863375378</v>
+        <v>0.003438998367165325</v>
       </c>
       <c r="M6" t="n">
-        <v>12.19248485333498</v>
+        <v>12.15720487343447</v>
       </c>
       <c r="N6" t="n">
-        <v>248.4838577163758</v>
+        <v>247.0776154717398</v>
       </c>
       <c r="O6" t="n">
-        <v>15.76337075997313</v>
+        <v>15.71870272865226</v>
       </c>
       <c r="P6" t="n">
-        <v>357.1227003918358</v>
+        <v>357.0857997604112</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20897,28 +21026,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04689010469584679</v>
+        <v>0.04928463839175099</v>
       </c>
       <c r="J7" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005669757140790432</v>
+        <v>0.0006325114578366042</v>
       </c>
       <c r="M7" t="n">
-        <v>12.08785236112258</v>
+        <v>12.06089467632883</v>
       </c>
       <c r="N7" t="n">
-        <v>237.9559452957301</v>
+        <v>236.8433979978948</v>
       </c>
       <c r="O7" t="n">
-        <v>15.42582073329423</v>
+        <v>15.38971728128541</v>
       </c>
       <c r="P7" t="n">
-        <v>349.1188854456405</v>
+        <v>349.0956354676779</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20975,28 +21104,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1265036634606843</v>
+        <v>-0.1286832172472673</v>
       </c>
       <c r="J8" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K8" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003679515005444944</v>
+        <v>0.003835037350986004</v>
       </c>
       <c r="M8" t="n">
-        <v>13.01256104685355</v>
+        <v>13.00491103414856</v>
       </c>
       <c r="N8" t="n">
-        <v>266.2477934432474</v>
+        <v>265.608127882395</v>
       </c>
       <c r="O8" t="n">
-        <v>16.31710125736944</v>
+        <v>16.29748839184722</v>
       </c>
       <c r="P8" t="n">
-        <v>348.447175335352</v>
+        <v>348.4679674164338</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21034,7 +21163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I479"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41683,6 +41812,147 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-41.077433985608835,172.10294456858978</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-41.07676157390679,172.10283838071572</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-41.07607705195284,172.10286741417636</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-41.075391025864974,172.10291317186676</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-41.074711813687095,172.1028827259852</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-41.074025437786,172.1029322322339</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-41.07334037417977,172.102966997813</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-41.077449348579925,172.1027729262824</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-41.07676693824895,172.10277844837688</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-41.07608457884579,172.1027833224632</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-41.07540418761869,172.10276612897235</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-41.07472337387488,172.10275357743194</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-41.07403871317143,172.10278392460023</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-41.07335376714669,172.1028173793719</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-41.07744696797104,172.10279952375234</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-41.076766779541046,172.10278022152315</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-41.076087054698284,172.10275566166865</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-41.07541356883983,172.1026613208075</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-41.07472833013999,172.10269820632755</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-41.07404868721916,172.10267249682997</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-41.07337423021443,172.10258877355807</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15415,6 +15415,204 @@
         <v>360.3992307692308</v>
       </c>
       <c r="I482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>399.28</v>
+      </c>
+      <c r="C483" t="n">
+        <v>396.22</v>
+      </c>
+      <c r="D483" t="n">
+        <v>384.7707692307693</v>
+      </c>
+      <c r="E483" t="n">
+        <v>385.2964705882353</v>
+      </c>
+      <c r="F483" t="n">
+        <v>374.5357142857143</v>
+      </c>
+      <c r="G483" t="n">
+        <v>364.9622222222222</v>
+      </c>
+      <c r="H483" t="n">
+        <v>367.4615384615385</v>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>387.94</v>
+      </c>
+      <c r="C484" t="n">
+        <v>378.82</v>
+      </c>
+      <c r="D484" t="n">
+        <v>369.7492307692308</v>
+      </c>
+      <c r="E484" t="n">
+        <v>356.2605882352942</v>
+      </c>
+      <c r="F484" t="n">
+        <v>340.9128571428571</v>
+      </c>
+      <c r="G484" t="n">
+        <v>327.37</v>
+      </c>
+      <c r="H484" t="n">
+        <v>318.2784615384616</v>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>388.14</v>
+      </c>
+      <c r="C485" t="n">
+        <v>381.86</v>
+      </c>
+      <c r="D485" t="n">
+        <v>372.8730769230769</v>
+      </c>
+      <c r="E485" t="n">
+        <v>358.7258823529411</v>
+      </c>
+      <c r="F485" t="n">
+        <v>344.6614285714286</v>
+      </c>
+      <c r="G485" t="n">
+        <v>333.6722222222222</v>
+      </c>
+      <c r="H485" t="n">
+        <v>326.8561538461539</v>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>366.69</v>
+      </c>
+      <c r="C486" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="D486" t="n">
+        <v>361.8984615384616</v>
+      </c>
+      <c r="E486" t="n">
+        <v>357.7876470588236</v>
+      </c>
+      <c r="F486" t="n">
+        <v>329.5571428571428</v>
+      </c>
+      <c r="G486" t="n">
+        <v>324.3022222222222</v>
+      </c>
+      <c r="H486" t="n">
+        <v>324.6269230769231</v>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="C487" t="n">
+        <v>369.05</v>
+      </c>
+      <c r="D487" t="n">
+        <v>363.1292307692308</v>
+      </c>
+      <c r="E487" t="n">
+        <v>357.8005882352941</v>
+      </c>
+      <c r="F487" t="n">
+        <v>350.8</v>
+      </c>
+      <c r="G487" t="n">
+        <v>338.2255555555556</v>
+      </c>
+      <c r="H487" t="n">
+        <v>330.5784615384616</v>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>367.01</v>
+      </c>
+      <c r="C488" t="n">
+        <v>366.94</v>
+      </c>
+      <c r="D488" t="n">
+        <v>365.1207692307692</v>
+      </c>
+      <c r="E488" t="n">
+        <v>366.7476470588235</v>
+      </c>
+      <c r="F488" t="n">
+        <v>352.9242857142857</v>
+      </c>
+      <c r="G488" t="n">
+        <v>349.6533333333333</v>
+      </c>
+      <c r="H488" t="n">
+        <v>353.9415384615385</v>
+      </c>
+      <c r="I488" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15431,7 +15629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20469,6 +20667,66 @@
       </c>
       <c r="B503" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -20642,28 +20900,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01627760213825929</v>
+        <v>-0.00537079750175067</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L2" t="n">
-        <v>7.027140578508284e-05</v>
+        <v>7.756021990212858e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>12.05213943319833</v>
+        <v>12.05651827063503</v>
       </c>
       <c r="N2" t="n">
-        <v>232.6653764743599</v>
+        <v>231.8880966315411</v>
       </c>
       <c r="O2" t="n">
-        <v>15.25337262622139</v>
+        <v>15.22787236062678</v>
       </c>
       <c r="P2" t="n">
-        <v>375.6040105495319</v>
+        <v>375.4990834099452</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20720,28 +20978,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05135716735484191</v>
+        <v>0.05383445386232309</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000729698873460527</v>
+        <v>0.000816364984368545</v>
       </c>
       <c r="M3" t="n">
-        <v>11.70637526653451</v>
+        <v>11.66595757939765</v>
       </c>
       <c r="N3" t="n">
-        <v>219.3403544913301</v>
+        <v>217.7205156706617</v>
       </c>
       <c r="O3" t="n">
-        <v>14.81014363506749</v>
+        <v>14.75535549116529</v>
       </c>
       <c r="P3" t="n">
-        <v>374.4148259101766</v>
+        <v>374.3909884039305</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20798,28 +21056,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1002852526409685</v>
+        <v>0.08544659936115404</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003338851179111479</v>
+        <v>0.002467931476508256</v>
       </c>
       <c r="M4" t="n">
-        <v>10.20743590394498</v>
+        <v>10.17873368566413</v>
       </c>
       <c r="N4" t="n">
-        <v>183.5704223474343</v>
+        <v>182.3750829006349</v>
       </c>
       <c r="O4" t="n">
-        <v>13.54881627107824</v>
+        <v>13.50463190541063</v>
       </c>
       <c r="P4" t="n">
-        <v>373.2978648339996</v>
+        <v>373.4416298525767</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20876,28 +21134,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1022723457541973</v>
+        <v>0.08774941228422244</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002795181572100347</v>
+        <v>0.002092292447525734</v>
       </c>
       <c r="M5" t="n">
-        <v>11.64700412346018</v>
+        <v>11.63772191597143</v>
       </c>
       <c r="N5" t="n">
-        <v>236.5299367762135</v>
+        <v>235.2044564251252</v>
       </c>
       <c r="O5" t="n">
-        <v>15.37952979698058</v>
+        <v>15.33637690020447</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4297518490433</v>
+        <v>367.5664592263544</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20948,28 +21206,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.1167665510837206</v>
+        <v>0.09087609606850702</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003438998367165325</v>
+        <v>0.002099248445326496</v>
       </c>
       <c r="M6" t="n">
-        <v>12.15720487343447</v>
+        <v>12.19461005089135</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0776154717398</v>
+        <v>247.9694640647024</v>
       </c>
       <c r="O6" t="n">
-        <v>15.71870272865226</v>
+        <v>15.74704620126271</v>
       </c>
       <c r="P6" t="n">
-        <v>357.0857997604112</v>
+        <v>357.3332384675441</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21026,28 +21284,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04928463839175099</v>
+        <v>0.02440430375711794</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006325114578366042</v>
+        <v>0.0001560615970854773</v>
       </c>
       <c r="M7" t="n">
-        <v>12.06089467632883</v>
+        <v>12.10506544846059</v>
       </c>
       <c r="N7" t="n">
-        <v>236.8433979978948</v>
+        <v>237.8028151294918</v>
       </c>
       <c r="O7" t="n">
-        <v>15.38971728128541</v>
+        <v>15.42085649792163</v>
       </c>
       <c r="P7" t="n">
-        <v>349.0956354676779</v>
+        <v>349.3366668947922</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21104,28 +21362,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1286832172472673</v>
+        <v>-0.147341056935372</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003835037350986004</v>
+        <v>0.005040551158477014</v>
       </c>
       <c r="M8" t="n">
-        <v>13.00491103414856</v>
+        <v>13.07656962589252</v>
       </c>
       <c r="N8" t="n">
-        <v>265.608127882395</v>
+        <v>267.1444984771311</v>
       </c>
       <c r="O8" t="n">
-        <v>16.29748839184722</v>
+        <v>16.3445556218923</v>
       </c>
       <c r="P8" t="n">
-        <v>348.4679674164338</v>
+        <v>348.6488205881602</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21163,7 +21421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41953,6 +42211,288 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-41.077446957390535,172.10279964196332</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-41.0767718052779,172.10272407188793</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-41.076087770106106,172.1027476689535</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-41.07541639818688,172.10262971077628</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-41.074733077790675,172.10264516556424</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-41.074051006722314,172.1026465836959</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-41.07338170251466,172.10250529448658</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-41.07743495902785,172.10293369318413</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-41.076753395076395,172.10292975682808</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-41.0760718763643,172.10292523631162</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-41.075385676339685,172.10297293605757</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-41.07469750231198,172.10304260805245</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-41.07401123107742,172.10309094182838</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-41.073329662921594,172.10308665615432</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-41.077435170640534,172.10293132896544</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-41.076756611597936,172.1028938210762</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-41.07607518161458,172.1028883098004</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-41.07538828482065,172.10294379449692</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-41.07470146864694,172.1029982976931</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-41.07401789946382,172.1030164465683</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-41.073338739011724,172.10298526480685</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-41.077412474902125,172.1031848913356</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-41.07674180915725,172.10305919643318</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-41.07606356964257,172.10301803904767</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-41.07538729209255,172.10295488511736</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-41.07468548681258,172.10317683936572</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-41.07400798504181,172.10312720441368</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-41.07333638026244,172.10301161510307</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-41.07741555393723,172.10315049197476</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-41.07674305769253,172.1030452476924</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-41.07606487189667,172.10300349031527</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-41.075387305785355,172.1029547321433</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-41.074707963785826,172.1029257360915</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-41.0740227173194,172.10296262399672</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-41.07334267757234,172.1029412658093</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-41.07741281349068,172.10318110858816</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-41.07674082514096,172.10307018993188</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-41.076066979102684,172.10297994864652</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-41.0753967724466,172.10284897141753</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-41.07471021145295,172.10290062575518</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-41.07403480887367,172.1028275421806</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-41.073367397576554,172.10266510583799</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15615,6 +15615,39 @@
       <c r="I488" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="C489" t="n">
+        <v>367.49</v>
+      </c>
+      <c r="D489" t="n">
+        <v>366.2253846153847</v>
+      </c>
+      <c r="E489" t="n">
+        <v>365.0982352941176</v>
+      </c>
+      <c r="F489" t="n">
+        <v>360.2128571428572</v>
+      </c>
+      <c r="G489" t="n">
+        <v>353.4511111111111</v>
+      </c>
+      <c r="H489" t="n">
+        <v>346.2207692307692</v>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20727,6 +20760,26 @@
       </c>
       <c r="B509" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -20900,28 +20953,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00537079750175067</v>
+        <v>-0.007739415055014862</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L2" t="n">
-        <v>7.756021990212858e-06</v>
+        <v>1.616540710513981e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>12.05651827063503</v>
+        <v>12.04049138190599</v>
       </c>
       <c r="N2" t="n">
-        <v>231.8880966315411</v>
+        <v>231.4108995743881</v>
       </c>
       <c r="O2" t="n">
-        <v>15.22787236062678</v>
+        <v>15.2121957512513</v>
       </c>
       <c r="P2" t="n">
-        <v>375.4990834099452</v>
+        <v>375.522033895273</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20978,28 +21031,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05383445386232309</v>
+        <v>0.05048518288052849</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000816364984368545</v>
+        <v>0.000720443178693464</v>
       </c>
       <c r="M3" t="n">
-        <v>11.66595757939765</v>
+        <v>11.65576400007717</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7205156706617</v>
+        <v>217.3582588711991</v>
       </c>
       <c r="O3" t="n">
-        <v>14.75535549116529</v>
+        <v>14.74307494626542</v>
       </c>
       <c r="P3" t="n">
-        <v>374.3909884039305</v>
+        <v>374.423769230334</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21056,28 +21109,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08544659936115404</v>
+        <v>0.08176139084140774</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002467931476508256</v>
+        <v>0.002266680056881465</v>
       </c>
       <c r="M4" t="n">
-        <v>10.17873368566413</v>
+        <v>10.17325653201905</v>
       </c>
       <c r="N4" t="n">
-        <v>182.3750829006349</v>
+        <v>182.1553356503186</v>
       </c>
       <c r="O4" t="n">
-        <v>13.50463190541063</v>
+        <v>13.49649345757329</v>
       </c>
       <c r="P4" t="n">
-        <v>373.4416298525767</v>
+        <v>373.4773952534126</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21134,28 +21187,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08774941228422244</v>
+        <v>0.08593317835313609</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K5" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002092292447525734</v>
+        <v>0.002014344252880051</v>
       </c>
       <c r="M5" t="n">
-        <v>11.63772191597143</v>
+        <v>11.62085856712674</v>
       </c>
       <c r="N5" t="n">
-        <v>235.2044564251252</v>
+        <v>234.7049999144871</v>
       </c>
       <c r="O5" t="n">
-        <v>15.33637690020447</v>
+        <v>15.32008485337099</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5664592263544</v>
+        <v>367.5835973887852</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21206,28 +21259,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.09087609606850702</v>
+        <v>0.09107363804397975</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002099248445326496</v>
+        <v>0.00211672558179532</v>
       </c>
       <c r="M6" t="n">
-        <v>12.19461005089135</v>
+        <v>12.16718006973783</v>
       </c>
       <c r="N6" t="n">
-        <v>247.9694640647024</v>
+        <v>247.3852513440764</v>
       </c>
       <c r="O6" t="n">
-        <v>15.74704620126271</v>
+        <v>15.72848534805804</v>
       </c>
       <c r="P6" t="n">
-        <v>357.3332384675441</v>
+        <v>357.3313454326121</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21284,28 +21337,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02440430375711794</v>
+        <v>0.02575343814523724</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K7" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001560615970854773</v>
+        <v>0.000174458684160661</v>
       </c>
       <c r="M7" t="n">
-        <v>12.10506544846059</v>
+        <v>12.08472057715006</v>
       </c>
       <c r="N7" t="n">
-        <v>237.8028151294918</v>
+        <v>237.2652594595195</v>
       </c>
       <c r="O7" t="n">
-        <v>15.42085649792163</v>
+        <v>15.40341713580203</v>
       </c>
       <c r="P7" t="n">
-        <v>349.3366668947922</v>
+        <v>349.3235570809585</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21362,28 +21415,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.147341056935372</v>
+        <v>-0.146806210555965</v>
       </c>
       <c r="J8" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005040551158477014</v>
+        <v>0.005023441562436615</v>
       </c>
       <c r="M8" t="n">
-        <v>13.07656962589252</v>
+        <v>13.04935055163651</v>
       </c>
       <c r="N8" t="n">
-        <v>267.1444984771311</v>
+        <v>266.5234698328749</v>
       </c>
       <c r="O8" t="n">
-        <v>16.3445556218923</v>
+        <v>16.32554654009705</v>
       </c>
       <c r="P8" t="n">
-        <v>348.6488205881602</v>
+        <v>348.6436187053783</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21421,7 +21474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42493,6 +42546,53 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-41.077415342320016,172.10315285619208</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-41.0767414070862,172.10306368840043</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-41.0760681478715,172.10296689115796</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-41.0753950272522,172.10286846866325</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-41.074717923312804,172.10281447043974</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-41.07403882720818,172.10278265061484</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-41.07335922845859,172.1027563681285</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15648,6 +15648,72 @@
       <c r="I489" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>370.53</v>
+      </c>
+      <c r="C490" t="n">
+        <v>369.41</v>
+      </c>
+      <c r="D490" t="n">
+        <v>358.3223076923077</v>
+      </c>
+      <c r="E490" t="n">
+        <v>352.58</v>
+      </c>
+      <c r="F490" t="n">
+        <v>342.2371428571429</v>
+      </c>
+      <c r="G490" t="n">
+        <v>326.6411111111111</v>
+      </c>
+      <c r="H490" t="n">
+        <v>324.1846153846154</v>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>356.49</v>
+      </c>
+      <c r="C491" t="n">
+        <v>361.92</v>
+      </c>
+      <c r="D491" t="n">
+        <v>358.16</v>
+      </c>
+      <c r="E491" t="n">
+        <v>351.7858823529411</v>
+      </c>
+      <c r="F491" t="n">
+        <v>336.52</v>
+      </c>
+      <c r="G491" t="n">
+        <v>318.5211111111111</v>
+      </c>
+      <c r="H491" t="n">
+        <v>331.42</v>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15662,7 +15728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20780,6 +20846,26 @@
       </c>
       <c r="B511" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -21474,7 +21560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42593,6 +42679,100 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-41.07741653795658,172.10313949836393</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-41.07674343860127,172.1030409921443</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-41.076059785770035,172.10306031220517</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-41.0753817819653,172.10301644327018</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-41.07469890353059,172.10302695420273</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-41.07401045983638,172.10309955764035</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-41.073335912255914,172.10301684333623</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-41.07740168232659,172.10330546639094</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-41.076735513550965,172.10312953117779</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-41.07605961403442,172.103062230819</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-41.07538094171933,172.10302583031398</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-41.07469285424144,172.1030945342484</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-41.074001867979426,172.1031955398741</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-41.07334356799888,172.1029313185254</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -21039,28 +21039,28 @@
         <v>0.1184</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007739415055014862</v>
+        <v>-0.01710087518730691</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>1.616540710513981e-05</v>
+        <v>7.925870232894372e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>12.04049138190599</v>
+        <v>12.0341935893002</v>
       </c>
       <c r="N2" t="n">
-        <v>231.4108995743881</v>
+        <v>231.1960718973527</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2121957512513</v>
+        <v>15.20513307726548</v>
       </c>
       <c r="P2" t="n">
-        <v>375.522033895273</v>
+        <v>375.6133226580666</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21117,28 +21117,28 @@
         <v>0.1182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05048518288052849</v>
+        <v>0.04237977417034138</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000720443178693464</v>
+        <v>0.0005107298372820646</v>
       </c>
       <c r="M3" t="n">
-        <v>11.65576400007717</v>
+        <v>11.64262416713907</v>
       </c>
       <c r="N3" t="n">
-        <v>217.3582588711991</v>
+        <v>216.8601812767974</v>
       </c>
       <c r="O3" t="n">
-        <v>14.74307494626542</v>
+        <v>14.72617334125867</v>
       </c>
       <c r="P3" t="n">
-        <v>374.423769230334</v>
+        <v>374.5035856443877</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21195,28 +21195,28 @@
         <v>0.1792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08176139084140774</v>
+        <v>0.06824244179005132</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002266680056881465</v>
+        <v>0.001580963340372721</v>
       </c>
       <c r="M4" t="n">
-        <v>10.17325653201905</v>
+        <v>10.19234025769296</v>
       </c>
       <c r="N4" t="n">
-        <v>182.1553356503186</v>
+        <v>182.6951751978444</v>
       </c>
       <c r="O4" t="n">
-        <v>13.49649345757329</v>
+        <v>13.51647791393321</v>
       </c>
       <c r="P4" t="n">
-        <v>373.4773952534126</v>
+        <v>373.6093659988618</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21273,28 +21273,28 @@
         <v>0.1096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08593317835313609</v>
+        <v>0.07248909916060148</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002014344252880051</v>
+        <v>0.001436970191093567</v>
       </c>
       <c r="M5" t="n">
-        <v>11.62085856712674</v>
+        <v>11.6427863646459</v>
       </c>
       <c r="N5" t="n">
-        <v>234.7049999144871</v>
+        <v>235.045506652121</v>
       </c>
       <c r="O5" t="n">
-        <v>15.32008485337099</v>
+        <v>15.33119390824214</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5835973887852</v>
+        <v>367.7112307755628</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21345,28 +21345,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.09107363804397975</v>
+        <v>0.07551466759873694</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00211672558179532</v>
+        <v>0.001456339337245094</v>
       </c>
       <c r="M6" t="n">
-        <v>12.16718006973783</v>
+        <v>12.19542811259871</v>
       </c>
       <c r="N6" t="n">
-        <v>247.3852513440764</v>
+        <v>248.1784891035996</v>
       </c>
       <c r="O6" t="n">
-        <v>15.72848534805804</v>
+        <v>15.75368176343548</v>
       </c>
       <c r="P6" t="n">
-        <v>357.3313454326121</v>
+        <v>357.4813672238917</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21423,28 +21423,28 @@
         <v>0.1127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02575343814523724</v>
+        <v>0.004554583005044878</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000174458684160661</v>
+        <v>5.418646458088539e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>12.08472057715006</v>
+        <v>12.15383708077243</v>
       </c>
       <c r="N7" t="n">
-        <v>237.2652594595195</v>
+        <v>239.7359340992347</v>
       </c>
       <c r="O7" t="n">
-        <v>15.40341713580203</v>
+        <v>15.48340834891448</v>
       </c>
       <c r="P7" t="n">
-        <v>349.3235570809585</v>
+        <v>349.5308212559368</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21501,28 +21501,28 @@
         <v>0.0793</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.146806210555965</v>
+        <v>-0.1597034979930577</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005023441562436615</v>
+        <v>0.005954519865565944</v>
       </c>
       <c r="M8" t="n">
-        <v>13.04935055163651</v>
+        <v>13.06432463579064</v>
       </c>
       <c r="N8" t="n">
-        <v>266.5234698328749</v>
+        <v>266.6736452981894</v>
       </c>
       <c r="O8" t="n">
-        <v>16.32554654009705</v>
+        <v>16.33014529323574</v>
       </c>
       <c r="P8" t="n">
-        <v>348.6436187053783</v>
+        <v>348.7698033001564</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0339/nzd0339.xlsx
+++ b/data/nzd0339/nzd0339.xlsx
@@ -21030,13 +21030,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1184</v>
+        <v>0.1888</v>
       </c>
       <c r="I2" t="n">
         <v>-0.01710087518730685</v>
@@ -21108,13 +21108,13 @@
         <v>0.8333333333342338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0861</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1182</v>
+        <v>0.1853</v>
       </c>
       <c r="I3" t="n">
         <v>0.04237977417034122</v>
@@ -21186,13 +21186,13 @@
         <v>0.666666666667695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="G4" t="n">
-        <v>0.103</v>
+        <v>0.1059</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1792</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.06824104341049715</v>
@@ -21264,13 +21264,13 @@
         <v>0.5000000000011563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0871</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1096</v>
+        <v>0.1496</v>
       </c>
       <c r="I5" t="n">
         <v>0.07249059799519939</v>
@@ -21341,9 +21341,15 @@
       <c r="E6" t="n">
         <v>0.3333333333346176</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.159</v>
+      </c>
       <c r="I6" t="n">
         <v>0.07547848238251308</v>
       </c>
@@ -21414,13 +21420,13 @@
         <v>0.1666666666680788</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0745</v>
+        <v>0.1096</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1127</v>
+        <v>0.1975</v>
       </c>
       <c r="I7" t="n">
         <v>0.004559001692695157</v>
@@ -21492,13 +21498,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0588</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0793</v>
+        <v>0.1351</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1597041133579335</v>
